--- a/classfiers/bottleneck/knn/smote/bottleneck-knn-smote-results.xlsx
+++ b/classfiers/bottleneck/knn/smote/bottleneck-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7133333333333334</v>
+        <v>0.7933579335793358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9953488372093023</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8310679611650486</v>
+        <v>0.8847736625514403</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8461204086068247</v>
+        <v>0.913953488372093</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9424778761061947</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9953271028037384</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9681818181818183</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.994175179308846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8385826771653543</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9953271028037384</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9102564102564102</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9363918246135035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8663967611336032</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9284164859002169</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9739387719451481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8007518796992481</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9953271028037384</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8875</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9356712376626779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8323085054875466</v>
+        <v>0.9586715867158672</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9962660291241034</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9050845351006988</v>
+        <v>0.9769547325102881</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9372594844274001</v>
+        <v>0.9827906976744186</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/knn/smote/bottleneck-knn-smote-results.xlsx
+++ b/classfiers/bottleneck/knn/smote/bottleneck-knn-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7933579335793358</v>
+        <v>0.8395061728395061</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8847736625514403</v>
+        <v>0.912751677852349</v>
       </c>
       <c r="E2" t="n">
-        <v>0.913953488372093</v>
+        <v>0.9137931034482759</v>
       </c>
     </row>
     <row r="3">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9586715867158672</v>
+        <v>0.9679012345679012</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9769547325102881</v>
+        <v>0.9825503355704697</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9827906976744186</v>
+        <v>0.9827586206896551</v>
       </c>
     </row>
   </sheetData>
